--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gdf11-Acvr1b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Gdf11-Acvr1b.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>1.727890333333334</v>
+        <v>1.419475</v>
       </c>
       <c r="H2">
-        <v>5.183671</v>
+        <v>4.258425</v>
       </c>
       <c r="I2">
-        <v>0.1994732709439544</v>
+        <v>0.1541931834006784</v>
       </c>
       <c r="J2">
-        <v>0.1994732709439544</v>
+        <v>0.1541931834006784</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.548026</v>
+        <v>3.063353333333333</v>
       </c>
       <c r="N2">
-        <v>7.644078</v>
+        <v>9.190059999999999</v>
       </c>
       <c r="O2">
-        <v>0.1809961777378536</v>
+        <v>0.1884019917097105</v>
       </c>
       <c r="P2">
-        <v>0.1809961777378536</v>
+        <v>0.1884019917097105</v>
       </c>
       <c r="Q2">
-        <v>4.402709494482001</v>
+        <v>4.348353472833333</v>
       </c>
       <c r="R2">
-        <v>39.624385450338</v>
+        <v>39.13518125549999</v>
       </c>
       <c r="S2">
-        <v>0.036103899601723</v>
+        <v>0.02905030286074848</v>
       </c>
       <c r="T2">
-        <v>0.03610389960172301</v>
+        <v>0.02905030286074848</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>1.727890333333334</v>
+        <v>1.419475</v>
       </c>
       <c r="H3">
-        <v>5.183671</v>
+        <v>4.258425</v>
       </c>
       <c r="I3">
-        <v>0.1994732709439544</v>
+        <v>0.1541931834006784</v>
       </c>
       <c r="J3">
-        <v>0.1994732709439544</v>
+        <v>0.1541931834006784</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>20.272974</v>
       </c>
       <c r="O3">
-        <v>0.4800226796977849</v>
+        <v>0.4156086771445645</v>
       </c>
       <c r="P3">
-        <v>0.4800226796977849</v>
+        <v>0.4156086771445645</v>
       </c>
       <c r="Q3">
-        <v>11.67649193417267</v>
+        <v>9.59232658955</v>
       </c>
       <c r="R3">
-        <v>105.088427407554</v>
+        <v>86.33093930594998</v>
       </c>
       <c r="S3">
-        <v>0.09575169404659929</v>
+        <v>0.06408402497786517</v>
       </c>
       <c r="T3">
-        <v>0.09575169404659931</v>
+        <v>0.06408402497786515</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>1.727890333333334</v>
+        <v>1.419475</v>
       </c>
       <c r="H4">
-        <v>5.183671</v>
+        <v>4.258425</v>
       </c>
       <c r="I4">
-        <v>0.1994732709439544</v>
+        <v>0.1541931834006784</v>
       </c>
       <c r="J4">
-        <v>0.1994732709439544</v>
+        <v>0.1541931834006784</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.525989333333333</v>
+        <v>3.493414666666666</v>
       </c>
       <c r="N4">
-        <v>4.577968</v>
+        <v>10.480244</v>
       </c>
       <c r="O4">
-        <v>0.108396945950343</v>
+        <v>0.214851572590793</v>
       </c>
       <c r="P4">
-        <v>0.108396945950343</v>
+        <v>0.214851572590793</v>
       </c>
       <c r="Q4">
-        <v>2.636742217836445</v>
+        <v>4.958814783966666</v>
       </c>
       <c r="R4">
-        <v>23.730679960528</v>
+        <v>44.62933305569999</v>
       </c>
       <c r="S4">
-        <v>0.02162229336904996</v>
+        <v>0.03312864793641632</v>
       </c>
       <c r="T4">
-        <v>0.02162229336904996</v>
+        <v>0.03312864793641631</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>1.727890333333334</v>
+        <v>1.419475</v>
       </c>
       <c r="H5">
-        <v>5.183671</v>
+        <v>4.258425</v>
       </c>
       <c r="I5">
-        <v>0.1994732709439544</v>
+        <v>0.1541931834006784</v>
       </c>
       <c r="J5">
-        <v>0.1994732709439544</v>
+        <v>0.1541931834006784</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.246115666666666</v>
+        <v>2.945239333333333</v>
       </c>
       <c r="N5">
-        <v>9.738346999999999</v>
+        <v>8.835718</v>
       </c>
       <c r="O5">
-        <v>0.2305841966140185</v>
+        <v>0.1811377585549322</v>
       </c>
       <c r="P5">
-        <v>0.2305841966140185</v>
+        <v>0.1811377585549322</v>
       </c>
       <c r="Q5">
-        <v>5.608931881315223</v>
+        <v>4.180693602683333</v>
       </c>
       <c r="R5">
-        <v>50.480386931837</v>
+        <v>37.62624242415</v>
       </c>
       <c r="S5">
-        <v>0.04599538392658217</v>
+        <v>0.02793020762564846</v>
       </c>
       <c r="T5">
-        <v>0.04599538392658217</v>
+        <v>0.02793020762564846</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>11.005528</v>
       </c>
       <c r="I6">
-        <v>0.4235046299476329</v>
+        <v>0.3984988340349546</v>
       </c>
       <c r="J6">
-        <v>0.423504629947633</v>
+        <v>0.3984988340349546</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.548026</v>
+        <v>3.063353333333333</v>
       </c>
       <c r="N6">
-        <v>7.644078</v>
+        <v>9.190059999999999</v>
       </c>
       <c r="O6">
-        <v>0.1809961777378536</v>
+        <v>0.1884019917097105</v>
       </c>
       <c r="P6">
-        <v>0.1809961777378536</v>
+        <v>0.1884019917097105</v>
       </c>
       <c r="Q6">
-        <v>9.347457162575999</v>
+        <v>11.23794029463111</v>
       </c>
       <c r="R6">
-        <v>84.127114463184</v>
+        <v>101.14146265168</v>
       </c>
       <c r="S6">
-        <v>0.07665271927480569</v>
+        <v>0.0750779740261828</v>
       </c>
       <c r="T6">
-        <v>0.0766527192748057</v>
+        <v>0.0750779740261828</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>11.005528</v>
       </c>
       <c r="I7">
-        <v>0.4235046299476329</v>
+        <v>0.3984988340349546</v>
       </c>
       <c r="J7">
-        <v>0.423504629947633</v>
+        <v>0.3984988340349546</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>20.272974</v>
       </c>
       <c r="O7">
-        <v>0.4800226796977849</v>
+        <v>0.4156086771445645</v>
       </c>
       <c r="P7">
-        <v>0.4800226796977849</v>
+        <v>0.4156086771445645</v>
       </c>
       <c r="Q7">
         <v>24.79053144447466</v>
@@ -883,10 +883,10 @@
         <v>223.114783000272</v>
       </c>
       <c r="S7">
-        <v>0.2032918273318815</v>
+        <v>0.1656195732569188</v>
       </c>
       <c r="T7">
-        <v>0.2032918273318816</v>
+        <v>0.1656195732569188</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>11.005528</v>
       </c>
       <c r="I8">
-        <v>0.4235046299476329</v>
+        <v>0.3984988340349546</v>
       </c>
       <c r="J8">
-        <v>0.423504629947633</v>
+        <v>0.3984988340349546</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.525989333333333</v>
+        <v>3.493414666666666</v>
       </c>
       <c r="N8">
-        <v>4.577968</v>
+        <v>10.480244</v>
       </c>
       <c r="O8">
-        <v>0.108396945950343</v>
+        <v>0.214851572590793</v>
       </c>
       <c r="P8">
-        <v>0.108396945950343</v>
+        <v>0.214851572590793</v>
       </c>
       <c r="Q8">
-        <v>5.598106111900445</v>
+        <v>12.81562430987022</v>
       </c>
       <c r="R8">
-        <v>50.382955007104</v>
+        <v>115.340618788832</v>
       </c>
       <c r="S8">
-        <v>0.04590660848215359</v>
+        <v>0.0856181011680074</v>
       </c>
       <c r="T8">
-        <v>0.0459066084821536</v>
+        <v>0.0856181011680074</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>11.005528</v>
       </c>
       <c r="I9">
-        <v>0.4235046299476329</v>
+        <v>0.3984988340349546</v>
       </c>
       <c r="J9">
-        <v>0.423504629947633</v>
+        <v>0.3984988340349546</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>3.246115666666666</v>
+        <v>2.945239333333333</v>
       </c>
       <c r="N9">
-        <v>9.738346999999999</v>
+        <v>8.835718</v>
       </c>
       <c r="O9">
-        <v>0.2305841966140185</v>
+        <v>0.1811377585549322</v>
       </c>
       <c r="P9">
-        <v>0.2305841966140185</v>
+        <v>0.1811377585549322</v>
       </c>
       <c r="Q9">
-        <v>11.90840562024622</v>
+        <v>10.80463798323378</v>
       </c>
       <c r="R9">
-        <v>107.175650582216</v>
+        <v>97.241741849104</v>
       </c>
       <c r="S9">
-        <v>0.09765347485879212</v>
+        <v>0.07218318558384558</v>
       </c>
       <c r="T9">
-        <v>0.09765347485879215</v>
+        <v>0.07218318558384558</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.056273333333333</v>
+        <v>4.049549666666667</v>
       </c>
       <c r="H10">
-        <v>9.16882</v>
+        <v>12.148649</v>
       </c>
       <c r="I10">
-        <v>0.3528261180341785</v>
+        <v>0.4398900681184871</v>
       </c>
       <c r="J10">
-        <v>0.3528261180341785</v>
+        <v>0.439890068118487</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.548026</v>
+        <v>3.063353333333333</v>
       </c>
       <c r="N10">
-        <v>7.644078</v>
+        <v>9.190059999999999</v>
       </c>
       <c r="O10">
-        <v>0.1809961777378536</v>
+        <v>0.1884019917097105</v>
       </c>
       <c r="P10">
-        <v>0.1809961777378536</v>
+        <v>0.1884019917097105</v>
       </c>
       <c r="Q10">
-        <v>7.78746391644</v>
+        <v>12.40520146988222</v>
       </c>
       <c r="R10">
-        <v>70.08717524796</v>
+        <v>111.64681322894</v>
       </c>
       <c r="S10">
-        <v>0.06386017877027107</v>
+        <v>0.08287616496684318</v>
       </c>
       <c r="T10">
-        <v>0.0638601787702711</v>
+        <v>0.08287616496684316</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.056273333333333</v>
+        <v>4.049549666666667</v>
       </c>
       <c r="H11">
-        <v>9.16882</v>
+        <v>12.148649</v>
       </c>
       <c r="I11">
-        <v>0.3528261180341785</v>
+        <v>0.4398900681184871</v>
       </c>
       <c r="J11">
-        <v>0.3528261180341785</v>
+        <v>0.439890068118487</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>20.272974</v>
       </c>
       <c r="O11">
-        <v>0.4800226796977849</v>
+        <v>0.4156086771445645</v>
       </c>
       <c r="P11">
-        <v>0.4800226796977849</v>
+        <v>0.4156086771445645</v>
       </c>
       <c r="Q11">
-        <v>20.65324994118667</v>
+        <v>27.36547170134733</v>
       </c>
       <c r="R11">
-        <v>185.87924947068</v>
+        <v>246.289245312126</v>
       </c>
       <c r="S11">
-        <v>0.1693645386461333</v>
+        <v>0.1828221292997567</v>
       </c>
       <c r="T11">
-        <v>0.1693645386461334</v>
+        <v>0.1828221292997567</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.056273333333333</v>
+        <v>4.049549666666667</v>
       </c>
       <c r="H12">
-        <v>9.16882</v>
+        <v>12.148649</v>
       </c>
       <c r="I12">
-        <v>0.3528261180341785</v>
+        <v>0.4398900681184871</v>
       </c>
       <c r="J12">
-        <v>0.3528261180341785</v>
+        <v>0.439890068118487</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.525989333333333</v>
+        <v>3.493414666666666</v>
       </c>
       <c r="N12">
-        <v>4.577968</v>
+        <v>10.480244</v>
       </c>
       <c r="O12">
-        <v>0.108396945950343</v>
+        <v>0.214851572590793</v>
       </c>
       <c r="P12">
-        <v>0.108396945950343</v>
+        <v>0.214851572590793</v>
       </c>
       <c r="Q12">
-        <v>4.663840506417778</v>
+        <v>14.14675619892844</v>
       </c>
       <c r="R12">
-        <v>41.97456455776</v>
+        <v>127.320805790356</v>
       </c>
       <c r="S12">
-        <v>0.03824527364642019</v>
+        <v>0.09451107290232801</v>
       </c>
       <c r="T12">
-        <v>0.0382452736464202</v>
+        <v>0.09451107290232799</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.056273333333333</v>
+        <v>4.049549666666667</v>
       </c>
       <c r="H13">
-        <v>9.16882</v>
+        <v>12.148649</v>
       </c>
       <c r="I13">
-        <v>0.3528261180341785</v>
+        <v>0.4398900681184871</v>
       </c>
       <c r="J13">
-        <v>0.3528261180341785</v>
+        <v>0.439890068118487</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>3.246115666666666</v>
+        <v>2.945239333333333</v>
       </c>
       <c r="N13">
-        <v>9.738346999999999</v>
+        <v>8.835718</v>
       </c>
       <c r="O13">
-        <v>0.2305841966140185</v>
+        <v>0.1811377585549322</v>
       </c>
       <c r="P13">
-        <v>0.2305841966140185</v>
+        <v>0.1811377585549322</v>
       </c>
       <c r="Q13">
-        <v>9.921016748948889</v>
+        <v>11.92689296055356</v>
       </c>
       <c r="R13">
-        <v>89.28915074053999</v>
+        <v>107.342036644982</v>
       </c>
       <c r="S13">
-        <v>0.08135612697135389</v>
+        <v>0.07968070094955917</v>
       </c>
       <c r="T13">
-        <v>0.08135612697135391</v>
+        <v>0.07968070094955916</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.209592</v>
+        <v>0.068288</v>
       </c>
       <c r="H14">
-        <v>0.628776</v>
+        <v>0.204864</v>
       </c>
       <c r="I14">
-        <v>0.02419598107423404</v>
+        <v>0.00741791444588001</v>
       </c>
       <c r="J14">
-        <v>0.02419598107423405</v>
+        <v>0.007417914445880009</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.548026</v>
+        <v>3.063353333333333</v>
       </c>
       <c r="N14">
-        <v>7.644078</v>
+        <v>9.190059999999999</v>
       </c>
       <c r="O14">
-        <v>0.1809961777378536</v>
+        <v>0.1884019917097105</v>
       </c>
       <c r="P14">
-        <v>0.1809961777378536</v>
+        <v>0.1884019917097105</v>
       </c>
       <c r="Q14">
-        <v>0.5340458653920001</v>
+        <v>0.2091902724266667</v>
       </c>
       <c r="R14">
-        <v>4.806412788528</v>
+        <v>1.88271245184</v>
       </c>
       <c r="S14">
-        <v>0.004379380091053806</v>
+        <v>0.001397549855936027</v>
       </c>
       <c r="T14">
-        <v>0.004379380091053808</v>
+        <v>0.001397549855936027</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.209592</v>
+        <v>0.068288</v>
       </c>
       <c r="H15">
-        <v>0.628776</v>
+        <v>0.204864</v>
       </c>
       <c r="I15">
-        <v>0.02419598107423404</v>
+        <v>0.00741791444588001</v>
       </c>
       <c r="J15">
-        <v>0.02419598107423405</v>
+        <v>0.007417914445880009</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>20.272974</v>
       </c>
       <c r="O15">
-        <v>0.4800226796977849</v>
+        <v>0.4156086771445645</v>
       </c>
       <c r="P15">
-        <v>0.4800226796977849</v>
+        <v>0.4156086771445645</v>
       </c>
       <c r="Q15">
-        <v>1.416351055536</v>
+        <v>0.461466949504</v>
       </c>
       <c r="R15">
-        <v>12.747159499824</v>
+        <v>4.153202545536</v>
       </c>
       <c r="S15">
-        <v>0.01161461967317071</v>
+        <v>0.003082949610023746</v>
       </c>
       <c r="T15">
-        <v>0.01161461967317072</v>
+        <v>0.003082949610023746</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.209592</v>
+        <v>0.068288</v>
       </c>
       <c r="H16">
-        <v>0.628776</v>
+        <v>0.204864</v>
       </c>
       <c r="I16">
-        <v>0.02419598107423404</v>
+        <v>0.00741791444588001</v>
       </c>
       <c r="J16">
-        <v>0.02419598107423405</v>
+        <v>0.007417914445880009</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.525989333333333</v>
+        <v>3.493414666666666</v>
       </c>
       <c r="N16">
-        <v>4.577968</v>
+        <v>10.480244</v>
       </c>
       <c r="O16">
-        <v>0.108396945950343</v>
+        <v>0.214851572590793</v>
       </c>
       <c r="P16">
-        <v>0.108396945950343</v>
+        <v>0.214851572590793</v>
       </c>
       <c r="Q16">
-        <v>0.319835156352</v>
+        <v>0.2385583007573333</v>
       </c>
       <c r="R16">
-        <v>2.878516407168</v>
+        <v>2.147024706816</v>
       </c>
       <c r="S16">
-        <v>0.00262277045271927</v>
+        <v>0.001593750584041281</v>
       </c>
       <c r="T16">
-        <v>0.002622770452719271</v>
+        <v>0.001593750584041281</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.209592</v>
+        <v>0.068288</v>
       </c>
       <c r="H17">
-        <v>0.628776</v>
+        <v>0.204864</v>
       </c>
       <c r="I17">
-        <v>0.02419598107423404</v>
+        <v>0.00741791444588001</v>
       </c>
       <c r="J17">
-        <v>0.02419598107423405</v>
+        <v>0.007417914445880009</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.246115666666666</v>
+        <v>2.945239333333333</v>
       </c>
       <c r="N17">
-        <v>9.738346999999999</v>
+        <v>8.835718</v>
       </c>
       <c r="O17">
-        <v>0.2305841966140185</v>
+        <v>0.1811377585549322</v>
       </c>
       <c r="P17">
-        <v>0.2305841966140185</v>
+        <v>0.1811377585549322</v>
       </c>
       <c r="Q17">
-        <v>0.680359874808</v>
+        <v>0.2011245035946667</v>
       </c>
       <c r="R17">
-        <v>6.123238873271999</v>
+        <v>1.810120532352</v>
       </c>
       <c r="S17">
-        <v>0.005579210857290253</v>
+        <v>0.001343664395878957</v>
       </c>
       <c r="T17">
-        <v>0.005579210857290254</v>
+        <v>0.001343664395878957</v>
       </c>
     </row>
   </sheetData>
